--- a/outputs-r202/f__Selenomonadaceae.xlsx
+++ b/outputs-r202/f__Selenomonadaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,6 +565,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -649,6 +654,11 @@
           <t>g__Mitsuokella</t>
         </is>
       </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>g__Mitsuokella(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -733,6 +743,11 @@
           <t>g__Selenomonas_C</t>
         </is>
       </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>g__Selenomonas_C</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -817,6 +832,11 @@
           <t>g__UBA2897</t>
         </is>
       </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>g__UBA2897</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -901,6 +921,11 @@
           <t>g__Mitsuokella</t>
         </is>
       </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>g__Mitsuokella(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -985,6 +1010,11 @@
           <t>g__Selenomonas_C</t>
         </is>
       </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>g__Selenomonas_C</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1069,6 +1099,11 @@
           <t>g__Mitsuokella</t>
         </is>
       </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>g__Mitsuokella(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1153,6 +1188,11 @@
           <t>g__UBA2897</t>
         </is>
       </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>g__UBA2897</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1237,6 +1277,11 @@
           <t>g__UBA2897</t>
         </is>
       </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>g__UBA2897(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1321,6 +1366,11 @@
           <t>g__Selenomonas_C</t>
         </is>
       </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>g__Selenomonas_C</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1405,6 +1455,11 @@
           <t>g__Selenomonas_C</t>
         </is>
       </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>g__Selenomonas_C</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1489,6 +1544,11 @@
           <t>g__Anaerovibrio</t>
         </is>
       </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>g__Anaerovibrio</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1573,6 +1633,11 @@
           <t>g__RUG643</t>
         </is>
       </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>g__RUG643</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1657,6 +1722,11 @@
           <t>g__Selenomonas_A</t>
         </is>
       </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>g__Selenomonas_A(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1741,6 +1811,11 @@
           <t>g__Schwartzia</t>
         </is>
       </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>g__Schwartzia(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1821,6 +1896,11 @@
         <v>0.9919132407542426</v>
       </c>
       <c r="Z16" t="inlineStr">
+        <is>
+          <t>g__UBA2897</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
         <is>
           <t>g__UBA2897</t>
         </is>

--- a/outputs-r202/f__Selenomonadaceae.xlsx
+++ b/outputs-r202/f__Selenomonadaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,76 +578,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03177297198979689</v>
+        <v>0.03181140515259126</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03177297198979689</v>
+        <v>0.03181140515259126</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03177297198979689</v>
+        <v>0.03181140515259126</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1837279281966333</v>
+        <v>0.1833193464864378</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03177297198979689</v>
+        <v>0.03181140515259126</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03177297198979687</v>
+        <v>0.0318114051525913</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03177297198979687</v>
+        <v>0.0318114051525913</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03177297198979687</v>
+        <v>0.03181140515259132</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03177297198979687</v>
+        <v>0.03181140515259132</v>
       </c>
       <c r="K2" t="n">
-        <v>0.03177297198979689</v>
+        <v>0.03181140515259128</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03177297198979689</v>
+        <v>0.03181140515259126</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03177297198979689</v>
+        <v>0.03181140515259126</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03177297198979689</v>
+        <v>0.03181140515259126</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03177297198979689</v>
+        <v>0.03181140515259128</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1490396600176325</v>
+        <v>0.1486411453091452</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03177297198979689</v>
+        <v>0.03181140515259126</v>
       </c>
       <c r="R2" t="n">
-        <v>0.03177297198979683</v>
+        <v>0.03181140515259126</v>
       </c>
       <c r="S2" t="n">
-        <v>0.03177297198979687</v>
+        <v>0.03181140515259133</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03177297198979687</v>
+        <v>0.03181140515259133</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03177297198979687</v>
+        <v>0.03181140515259133</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03177297198979687</v>
+        <v>0.03181140515259133</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03177297198979687</v>
+        <v>0.03181140515259133</v>
       </c>
       <c r="X2" t="n">
-        <v>0.03177297198979687</v>
+        <v>0.03181140515259126</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1837279281966333</v>
+        <v>0.1833193464864378</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
@@ -667,76 +667,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0008887051772889062</v>
+        <v>0.0007628263982627982</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0008887051772889062</v>
+        <v>0.0007628263982627982</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0008887051772889062</v>
+        <v>0.0007628263982627982</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0008887051772889103</v>
+        <v>0.0007628263982628016</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008887051772889103</v>
+        <v>0.0007628263982628016</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0008887051772889106</v>
+        <v>0.0007628263982628006</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008887051772889106</v>
+        <v>0.0007628263982628006</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0008887051772889106</v>
+        <v>0.0007628263982628006</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0008887051772889106</v>
+        <v>0.0007628263982628006</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0008887051772889065</v>
+        <v>0.000762826398262798</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0008887051772889065</v>
+        <v>0.000762826398262798</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0008887051772889065</v>
+        <v>0.000762826398262798</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0008887051772889065</v>
+        <v>0.000762826398262798</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0008887051772889099</v>
+        <v>0.0007628263982627984</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9804484860996439</v>
+        <v>0.9832178192382185</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0008887051772889099</v>
+        <v>0.0007628263982627984</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0008887051772889062</v>
+        <v>0.000762826398262798</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0008887051772889077</v>
+        <v>0.0007628263982628006</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0008887051772889077</v>
+        <v>0.0007628263982628006</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0008887051772889077</v>
+        <v>0.0007628263982628006</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0008887051772889077</v>
+        <v>0.0007628263982628006</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0008887051772889077</v>
+        <v>0.0007628263982628006</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0008887051772889049</v>
+        <v>0.0007628263982627985</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9804484860996439</v>
+        <v>0.9832178192382185</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
@@ -756,76 +756,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.220414820918965e-14</v>
+        <v>2.220128549229573e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220414820918965e-14</v>
+        <v>2.220128549229573e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220414820918965e-14</v>
+        <v>2.220128549229573e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>2.220414820918965e-14</v>
+        <v>2.220128549229573e-14</v>
       </c>
       <c r="F4" t="n">
-        <v>2.220414820918965e-14</v>
+        <v>2.220128549229573e-14</v>
       </c>
       <c r="G4" t="n">
-        <v>2.220414820918965e-14</v>
+        <v>2.220128549229573e-14</v>
       </c>
       <c r="H4" t="n">
-        <v>2.220414820918965e-14</v>
+        <v>2.220128549229573e-14</v>
       </c>
       <c r="I4" t="n">
-        <v>2.220414820918965e-14</v>
+        <v>2.220128549229573e-14</v>
       </c>
       <c r="J4" t="n">
-        <v>2.220414820918965e-14</v>
+        <v>2.220128549229573e-14</v>
       </c>
       <c r="K4" t="n">
-        <v>2.220414820918965e-14</v>
+        <v>2.220128549229573e-14</v>
       </c>
       <c r="L4" t="n">
-        <v>2.220414820918965e-14</v>
+        <v>2.220128549229573e-14</v>
       </c>
       <c r="M4" t="n">
-        <v>2.220414820918965e-14</v>
+        <v>2.220128549229573e-14</v>
       </c>
       <c r="N4" t="n">
-        <v>2.220414820918965e-14</v>
+        <v>2.220128549229573e-14</v>
       </c>
       <c r="O4" t="n">
-        <v>2.220414820918965e-14</v>
+        <v>2.220128549229573e-14</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0003237821336130383</v>
+        <v>0.003490554010074044</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.220414820918965e-14</v>
+        <v>2.220128549229573e-14</v>
       </c>
       <c r="R4" t="n">
-        <v>2.220414820918965e-14</v>
+        <v>2.220128549229573e-14</v>
       </c>
       <c r="S4" t="n">
-        <v>2.220414820918965e-14</v>
+        <v>2.220128549229573e-14</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9996762178659206</v>
+        <v>0.9965094459894597</v>
       </c>
       <c r="U4" t="n">
-        <v>2.220414820918965e-14</v>
+        <v>2.220128549229573e-14</v>
       </c>
       <c r="V4" t="n">
-        <v>2.220414820918965e-14</v>
+        <v>2.220128549229573e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>2.220414820918965e-14</v>
+        <v>2.220128549229573e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>2.220414820918965e-14</v>
+        <v>2.220128549229573e-14</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9996762178659206</v>
+        <v>0.9965094459894597</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
@@ -845,76 +845,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03183854323170474</v>
+        <v>0.03183511948701343</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03183854323170474</v>
+        <v>0.03183511948701343</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03183854323170474</v>
+        <v>0.03183511948701343</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1830308567579956</v>
+        <v>0.1830673488399125</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03183854323170469</v>
+        <v>0.03183511948701338</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03183854323170474</v>
+        <v>0.0318351194870133</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03183854323170476</v>
+        <v>0.0318351194870133</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03183854323170476</v>
+        <v>0.0318351194870133</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03183854323170476</v>
+        <v>0.0318351194870133</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03183854323170474</v>
+        <v>0.03183511948701338</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03183854323170474</v>
+        <v>0.03183511948701336</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03183854323170474</v>
+        <v>0.03183511948701336</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03183854323170474</v>
+        <v>0.03183511948701336</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03183854323170474</v>
+        <v>0.03183511948701336</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1483597353762053</v>
+        <v>0.1483951419328073</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03183854323170472</v>
+        <v>0.03183511948701336</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03183854323170472</v>
+        <v>0.03183511948701336</v>
       </c>
       <c r="S5" t="n">
-        <v>0.03183854323170474</v>
+        <v>0.03183511948701329</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03183854323170474</v>
+        <v>0.03183511948701329</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03183854323170474</v>
+        <v>0.03183511948701329</v>
       </c>
       <c r="V5" t="n">
-        <v>0.03183854323170474</v>
+        <v>0.03183511948701329</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03183854323170466</v>
+        <v>0.03183511948701329</v>
       </c>
       <c r="X5" t="n">
-        <v>0.03183854323170461</v>
+        <v>0.03183511948701328</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1830308567579956</v>
+        <v>0.1830673488399125</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
@@ -934,76 +934,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.004996867169095874</v>
+        <v>0.0009020039056573516</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004996867169095874</v>
+        <v>0.0009020039056573516</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004996867169095874</v>
+        <v>0.0009020039056573516</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004996867169095874</v>
+        <v>0.000902003905657354</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004996867169095883</v>
+        <v>0.000902003905657354</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0049968671690959</v>
+        <v>0.000902003905657354</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0049968671690959</v>
+        <v>0.000902003905657354</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0049968671690959</v>
+        <v>0.000902003905657354</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0049968671690959</v>
+        <v>0.000902003905657354</v>
       </c>
       <c r="K6" t="n">
-        <v>0.004996867169095883</v>
+        <v>0.0009020039056573574</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004996867169095883</v>
+        <v>0.0009020039056573574</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004996867169095883</v>
+        <v>0.0009020039056573574</v>
       </c>
       <c r="N6" t="n">
-        <v>0.004996867169095883</v>
+        <v>0.0009020039056573574</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004996867169095886</v>
+        <v>0.0009020039056573609</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8900689222798904</v>
+        <v>0.9801559140755383</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.004996867169095886</v>
+        <v>0.0009020039056573609</v>
       </c>
       <c r="R6" t="n">
-        <v>0.004996867169095883</v>
+        <v>0.0009020039056573505</v>
       </c>
       <c r="S6" t="n">
-        <v>0.004996867169095908</v>
+        <v>0.0009020039056573579</v>
       </c>
       <c r="T6" t="n">
-        <v>0.004996867169095908</v>
+        <v>0.0009020039056573579</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004996867169095908</v>
+        <v>0.0009020039056573579</v>
       </c>
       <c r="V6" t="n">
-        <v>0.004996867169095908</v>
+        <v>0.0009020039056573579</v>
       </c>
       <c r="W6" t="n">
-        <v>0.004996867169095908</v>
+        <v>0.0009020039056573579</v>
       </c>
       <c r="X6" t="n">
-        <v>0.004996867169095898</v>
+        <v>0.0009020039056573544</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.8900689222798904</v>
+        <v>0.9801559140755383</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
@@ -1023,76 +1023,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04139995277366916</v>
+        <v>0.03183308574510405</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04139995277366916</v>
+        <v>0.03183308574510405</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04139995277366931</v>
+        <v>0.03183308574510405</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08919417833884802</v>
+        <v>0.1830889624539543</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04139995277366924</v>
+        <v>0.03183308574510407</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04139995277366922</v>
+        <v>0.03183308574510399</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04139995277366922</v>
+        <v>0.03183308574510402</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04139995277366922</v>
+        <v>0.03183308574510402</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04139995277366922</v>
+        <v>0.03183308574510402</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04139995277366916</v>
+        <v>0.03183308574510395</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04139995277366916</v>
+        <v>0.03183308574510395</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04139995277366908</v>
+        <v>0.03183308574510395</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04139995277366908</v>
+        <v>0.03183308574510395</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04139995277366916</v>
+        <v>0.03183308574510406</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04140681341409916</v>
+        <v>0.1484162368988609</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.04139995277366916</v>
+        <v>0.03183308574510414</v>
       </c>
       <c r="R7" t="n">
-        <v>0.04139995277366908</v>
+        <v>0.03183308574510406</v>
       </c>
       <c r="S7" t="n">
-        <v>0.04139995277366918</v>
+        <v>0.03183308574510413</v>
       </c>
       <c r="T7" t="n">
-        <v>0.04139995277366918</v>
+        <v>0.03183308574510413</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04139995277366918</v>
+        <v>0.03183308574510413</v>
       </c>
       <c r="V7" t="n">
-        <v>0.04139995277366918</v>
+        <v>0.03183308574510413</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04139995277366918</v>
+        <v>0.03183308574510413</v>
       </c>
       <c r="X7" t="n">
-        <v>0.04139995277366918</v>
+        <v>0.03183308574510403</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.08919417833884802</v>
+        <v>0.1830889624539543</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
@@ -1112,76 +1112,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.220128633583851e-14</v>
+        <v>2.220129462743331e-14</v>
       </c>
       <c r="C8" t="n">
-        <v>2.220128633583851e-14</v>
+        <v>2.220129462743331e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>2.220128633583851e-14</v>
+        <v>2.220129462743331e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>2.220128633583851e-14</v>
+        <v>2.220129462743331e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>2.220128633583851e-14</v>
+        <v>2.220129462743331e-14</v>
       </c>
       <c r="G8" t="n">
-        <v>2.220128633583851e-14</v>
+        <v>2.220129462743331e-14</v>
       </c>
       <c r="H8" t="n">
-        <v>2.220128633583851e-14</v>
+        <v>2.220129462743331e-14</v>
       </c>
       <c r="I8" t="n">
-        <v>2.220128633583851e-14</v>
+        <v>2.220129462743331e-14</v>
       </c>
       <c r="J8" t="n">
-        <v>2.220128633583851e-14</v>
+        <v>2.220129462743331e-14</v>
       </c>
       <c r="K8" t="n">
-        <v>2.220128633583851e-14</v>
+        <v>2.220129462743331e-14</v>
       </c>
       <c r="L8" t="n">
-        <v>2.220128633583851e-14</v>
+        <v>2.220129462743331e-14</v>
       </c>
       <c r="M8" t="n">
-        <v>2.220128633583851e-14</v>
+        <v>2.220129462743331e-14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.220128633583851e-14</v>
+        <v>2.220129462743331e-14</v>
       </c>
       <c r="O8" t="n">
-        <v>2.220128633583851e-14</v>
+        <v>2.220129462743331e-14</v>
       </c>
       <c r="P8" t="n">
-        <v>0.003592960155118575</v>
+        <v>0.004810888441389312</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.220128633583851e-14</v>
+        <v>2.220129462743331e-14</v>
       </c>
       <c r="R8" t="n">
-        <v>2.220128633583851e-14</v>
+        <v>2.220129462743331e-14</v>
       </c>
       <c r="S8" t="n">
-        <v>2.220128633583851e-14</v>
+        <v>2.220129462743331e-14</v>
       </c>
       <c r="T8" t="n">
-        <v>0.9964070398444151</v>
+        <v>0.9951891115581444</v>
       </c>
       <c r="U8" t="n">
-        <v>2.220128633583851e-14</v>
+        <v>2.220129462743331e-14</v>
       </c>
       <c r="V8" t="n">
-        <v>2.220128633583851e-14</v>
+        <v>2.220129462743331e-14</v>
       </c>
       <c r="W8" t="n">
-        <v>2.220128633583851e-14</v>
+        <v>2.220129462743331e-14</v>
       </c>
       <c r="X8" t="n">
-        <v>2.220128633583851e-14</v>
+        <v>2.220129462743331e-14</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.9964070398444151</v>
+        <v>0.9951891115581444</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
@@ -1201,85 +1201,85 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.220301118107112e-14</v>
+        <v>0.0008097854708506969</v>
       </c>
       <c r="C9" t="n">
-        <v>2.220301118107112e-14</v>
+        <v>0.0008097854708506969</v>
       </c>
       <c r="D9" t="n">
-        <v>2.220301118107112e-14</v>
+        <v>0.0008097854708506969</v>
       </c>
       <c r="E9" t="n">
-        <v>2.220301118107112e-14</v>
+        <v>0.0008097854708507016</v>
       </c>
       <c r="F9" t="n">
-        <v>2.220301118107112e-14</v>
+        <v>0.0008097854708507016</v>
       </c>
       <c r="G9" t="n">
-        <v>2.220301118107112e-14</v>
+        <v>0.0008097854708507016</v>
       </c>
       <c r="H9" t="n">
-        <v>2.220301118107112e-14</v>
+        <v>0.0008097854708507016</v>
       </c>
       <c r="I9" t="n">
-        <v>2.220301118107112e-14</v>
+        <v>0.0008097854708507016</v>
       </c>
       <c r="J9" t="n">
-        <v>2.220301118107112e-14</v>
+        <v>0.0008097854708507016</v>
       </c>
       <c r="K9" t="n">
-        <v>2.220301118107112e-14</v>
+        <v>0.0008097854708506997</v>
       </c>
       <c r="L9" t="n">
-        <v>2.220301118107112e-14</v>
+        <v>0.0008097854708506997</v>
       </c>
       <c r="M9" t="n">
-        <v>2.220301118107112e-14</v>
+        <v>0.0008097854708506997</v>
       </c>
       <c r="N9" t="n">
-        <v>2.220301118107112e-14</v>
+        <v>0.0008097854708506997</v>
       </c>
       <c r="O9" t="n">
-        <v>2.220301118107112e-14</v>
+        <v>0.0008097854708507004</v>
       </c>
       <c r="P9" t="n">
-        <v>0.2670150361423246</v>
+        <v>0.9821847196412846</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.220301118107112e-14</v>
+        <v>0.0008097854708507004</v>
       </c>
       <c r="R9" t="n">
-        <v>2.220301118107112e-14</v>
+        <v>0.0008097854708506997</v>
       </c>
       <c r="S9" t="n">
-        <v>2.220301118107112e-14</v>
+        <v>0.0008097854708507032</v>
       </c>
       <c r="T9" t="n">
-        <v>0.7329849638572091</v>
+        <v>0.0008097854708507032</v>
       </c>
       <c r="U9" t="n">
-        <v>2.220301118107112e-14</v>
+        <v>0.0008097854708507032</v>
       </c>
       <c r="V9" t="n">
-        <v>2.220301118107112e-14</v>
+        <v>0.0008097854708507032</v>
       </c>
       <c r="W9" t="n">
-        <v>2.220301118107112e-14</v>
+        <v>0.0008097854708507032</v>
       </c>
       <c r="X9" t="n">
-        <v>2.220301118107112e-14</v>
+        <v>0.0008097854708507032</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.7329849638572091</v>
+        <v>0.9821847196412846</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>g__UBA2897</t>
+          <t>g__Selenomonas_C</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>g__UBA2897</t>
+          <t>g__Selenomonas_C</t>
         </is>
       </c>
     </row>
@@ -1290,76 +1290,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0008415019576926964</v>
+        <v>0.0006654196115507327</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0008415019576926964</v>
+        <v>0.0006654196115507327</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0008415019576926964</v>
+        <v>0.0006654196115507327</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0008415019576926998</v>
+        <v>0.0006654196115507378</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0008415019576926998</v>
+        <v>0.0006654196115507378</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0008415019576926998</v>
+        <v>0.0006654196115507377</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008415019576926998</v>
+        <v>0.0006654196115507377</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0008415019576926998</v>
+        <v>0.0006654196115507377</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0008415019576926998</v>
+        <v>0.0006654196115507377</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0008415019576926963</v>
+        <v>0.0006654196115507375</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0008415019576926963</v>
+        <v>0.0006654196115507375</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0008415019576926963</v>
+        <v>0.0006654196115507375</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0008415019576926963</v>
+        <v>0.0006654196115507375</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0008415019576926998</v>
+        <v>0.0006654196115507398</v>
       </c>
       <c r="P10" t="n">
-        <v>0.9814869569307606</v>
+        <v>0.9853607685458838</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0008415019576926998</v>
+        <v>0.0006654196115507398</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0008415019576926963</v>
+        <v>0.0006654196115507375</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0008415019576927053</v>
+        <v>0.0006654196115507381</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0008415019576927053</v>
+        <v>0.0006654196115507381</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0008415019576927053</v>
+        <v>0.0006654196115507381</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0008415019576927053</v>
+        <v>0.0006654196115507381</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0008415019576927053</v>
+        <v>0.0006654196115507381</v>
       </c>
       <c r="X10" t="n">
-        <v>0.0008415019576927019</v>
+        <v>0.0006654196115507381</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.9814869569307606</v>
+        <v>0.9853607685458838</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
@@ -1379,76 +1379,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.003473323871885864</v>
+        <v>0.000887487623702202</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003473323871885864</v>
+        <v>0.000887487623702202</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003473323871885864</v>
+        <v>0.000887487623702202</v>
       </c>
       <c r="E11" t="n">
-        <v>0.003473323871885864</v>
+        <v>0.0008874876237022075</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003473323871885864</v>
+        <v>0.0008874876237022075</v>
       </c>
       <c r="G11" t="n">
-        <v>0.003473323871885864</v>
+        <v>0.0008874876237022113</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003473323871885864</v>
+        <v>0.0008874876237022113</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003473323871885864</v>
+        <v>0.0008874876237022113</v>
       </c>
       <c r="J11" t="n">
-        <v>0.003473323871885864</v>
+        <v>0.0008874876237022113</v>
       </c>
       <c r="K11" t="n">
-        <v>0.003473323871885874</v>
+        <v>0.0008874876237022049</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003473323871885866</v>
+        <v>0.0008874876237022049</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003473323871885866</v>
+        <v>0.0008874876237022049</v>
       </c>
       <c r="N11" t="n">
-        <v>0.003473323871885866</v>
+        <v>0.0008874876237022049</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003473323871885879</v>
+        <v>0.0008874876237022055</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9235868748185111</v>
+        <v>0.9804752722785512</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.003473323871885879</v>
+        <v>0.0008874876237022055</v>
       </c>
       <c r="R11" t="n">
-        <v>0.003473323871885866</v>
+        <v>0.0008874876237022049</v>
       </c>
       <c r="S11" t="n">
-        <v>0.003473323871885889</v>
+        <v>0.0008874876237022096</v>
       </c>
       <c r="T11" t="n">
-        <v>0.003473323871885889</v>
+        <v>0.0008874876237022096</v>
       </c>
       <c r="U11" t="n">
-        <v>0.003473323871885889</v>
+        <v>0.0008874876237022096</v>
       </c>
       <c r="V11" t="n">
-        <v>0.003473323871885889</v>
+        <v>0.0008874876237022096</v>
       </c>
       <c r="W11" t="n">
-        <v>0.003473323871885889</v>
+        <v>0.0008874876237022096</v>
       </c>
       <c r="X11" t="n">
-        <v>0.003473323871885885</v>
+        <v>0.0008874876237022086</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.9235868748185111</v>
+        <v>0.9804752722785512</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
@@ -1464,443 +1464,176 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>RUG633.fasta</t>
+          <t>RUG762.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9570423596199538</v>
+        <v>0.04070827801684807</v>
       </c>
       <c r="C12" t="n">
-        <v>2.220602364958053e-14</v>
+        <v>0.04070827801684807</v>
       </c>
       <c r="D12" t="n">
-        <v>0.02602975297765901</v>
+        <v>0.04070827801684807</v>
       </c>
       <c r="E12" t="n">
-        <v>2.220602364958053e-14</v>
+        <v>0.04070827801684812</v>
       </c>
       <c r="F12" t="n">
-        <v>2.220602364958053e-14</v>
+        <v>0.04070827801684812</v>
       </c>
       <c r="G12" t="n">
-        <v>2.220602364958053e-14</v>
+        <v>0.04070827801684807</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01600452755693338</v>
+        <v>0.0407082780168482</v>
       </c>
       <c r="I12" t="n">
-        <v>2.220602364958053e-14</v>
+        <v>0.0407082780168482</v>
       </c>
       <c r="J12" t="n">
-        <v>2.220602364958053e-14</v>
+        <v>0.0407082780168482</v>
       </c>
       <c r="K12" t="n">
-        <v>2.220602364958053e-14</v>
+        <v>0.04070827801684816</v>
       </c>
       <c r="L12" t="n">
-        <v>2.220602364958053e-14</v>
+        <v>0.07256301998946588</v>
       </c>
       <c r="M12" t="n">
-        <v>2.220602364958053e-14</v>
+        <v>0.04070827801684816</v>
       </c>
       <c r="N12" t="n">
-        <v>2.220602364958053e-14</v>
+        <v>0.04070827801684809</v>
       </c>
       <c r="O12" t="n">
-        <v>2.220602364958053e-14</v>
+        <v>0.04070827801684816</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0009233598450319621</v>
+        <v>0.04070839968410384</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.220602364958053e-14</v>
+        <v>0.04070827801684816</v>
       </c>
       <c r="R12" t="n">
-        <v>2.220602364958053e-14</v>
+        <v>0.04070827801684812</v>
       </c>
       <c r="S12" t="n">
-        <v>2.220602364958053e-14</v>
+        <v>0.07256301998946771</v>
       </c>
       <c r="T12" t="n">
-        <v>2.220602364958053e-14</v>
+        <v>0.04070827801684811</v>
       </c>
       <c r="U12" t="n">
-        <v>2.220602364958053e-14</v>
+        <v>0.04070827801684812</v>
       </c>
       <c r="V12" t="n">
-        <v>2.220602364958053e-14</v>
+        <v>0.04070827801684816</v>
       </c>
       <c r="W12" t="n">
-        <v>2.220602364958053e-14</v>
+        <v>0.04070827801684816</v>
       </c>
       <c r="X12" t="n">
-        <v>2.220602364958053e-14</v>
+        <v>0.04070827801684816</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.9570423596199538</v>
+        <v>0.07256301998946771</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>g__Anaerovibrio</t>
+          <t>g__UBA1799</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>g__Anaerovibrio</t>
+          <t>g__UBA1799(reject)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RUG643.fasta</t>
+          <t>hRUG860.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.22039351925999e-14</v>
+        <v>2.220161892711508e-14</v>
       </c>
       <c r="C13" t="n">
-        <v>2.22039351925999e-14</v>
+        <v>2.220161892711508e-14</v>
       </c>
       <c r="D13" t="n">
-        <v>2.22039351925999e-14</v>
+        <v>2.220161892711508e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>2.22039351925999e-14</v>
+        <v>2.220161892711508e-14</v>
       </c>
       <c r="F13" t="n">
-        <v>2.22039351925999e-14</v>
+        <v>2.220161892711508e-14</v>
       </c>
       <c r="G13" t="n">
-        <v>2.22039351925999e-14</v>
+        <v>2.220161892711508e-14</v>
       </c>
       <c r="H13" t="n">
-        <v>2.22039351925999e-14</v>
+        <v>2.220161892711508e-14</v>
       </c>
       <c r="I13" t="n">
-        <v>2.22039351925999e-14</v>
+        <v>2.220161892711508e-14</v>
       </c>
       <c r="J13" t="n">
-        <v>2.22039351925999e-14</v>
+        <v>2.220161892711508e-14</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9994550004003327</v>
+        <v>2.220161892711508e-14</v>
       </c>
       <c r="L13" t="n">
-        <v>2.22039351925999e-14</v>
+        <v>2.220161892711508e-14</v>
       </c>
       <c r="M13" t="n">
-        <v>2.22039351925999e-14</v>
+        <v>2.220161892711508e-14</v>
       </c>
       <c r="N13" t="n">
-        <v>2.22039351925999e-14</v>
+        <v>2.220161892711508e-14</v>
       </c>
       <c r="O13" t="n">
-        <v>2.22039351925999e-14</v>
+        <v>2.220161892711508e-14</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0005449995992009377</v>
+        <v>0.002969463957889073</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.22039351925999e-14</v>
+        <v>2.220161892711508e-14</v>
       </c>
       <c r="R13" t="n">
-        <v>2.22039351925999e-14</v>
+        <v>2.220161892711508e-14</v>
       </c>
       <c r="S13" t="n">
-        <v>2.22039351925999e-14</v>
+        <v>2.220161892711508e-14</v>
       </c>
       <c r="T13" t="n">
-        <v>2.22039351925999e-14</v>
+        <v>0.9970305360416447</v>
       </c>
       <c r="U13" t="n">
-        <v>2.22039351925999e-14</v>
+        <v>2.220161892711508e-14</v>
       </c>
       <c r="V13" t="n">
-        <v>2.22039351925999e-14</v>
+        <v>2.220161892711508e-14</v>
       </c>
       <c r="W13" t="n">
-        <v>2.22039351925999e-14</v>
+        <v>2.220161892711508e-14</v>
       </c>
       <c r="X13" t="n">
-        <v>2.22039351925999e-14</v>
+        <v>2.220161892711508e-14</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.9994550004003327</v>
+        <v>0.9970305360416447</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>g__RUG643</t>
+          <t>g__UBA2897</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
-        <is>
-          <t>g__RUG643</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>RUG758.fasta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4.818678876731955e-13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4.818678876731955e-13</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4.818678876731955e-13</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4.818678876731951e-13</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4.818678876731951e-13</v>
-      </c>
-      <c r="G14" t="n">
-        <v>4.818678876731944e-13</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4.818678876731944e-13</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.2407360574192178</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.818678876731944e-13</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.818678876731947e-13</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.2407360574192179</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4.818678876731946e-13</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.2777853315769592</v>
-      </c>
-      <c r="O14" t="n">
-        <v>4.818678876731901e-13</v>
-      </c>
-      <c r="P14" t="n">
-        <v>6.496156713647898e-06</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4.818678876731901e-13</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4.818678876731901e-13</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.2407360574192178</v>
-      </c>
-      <c r="T14" t="n">
-        <v>4.818678876731901e-13</v>
-      </c>
-      <c r="U14" t="n">
-        <v>4.818678876731901e-13</v>
-      </c>
-      <c r="V14" t="n">
-        <v>4.818678876731901e-13</v>
-      </c>
-      <c r="W14" t="n">
-        <v>4.818678876731901e-13</v>
-      </c>
-      <c r="X14" t="n">
-        <v>4.818678876731901e-13</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.2777853315769592</v>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>g__Selenomonas_A</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>g__Selenomonas_A(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>RUG762.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.04070827893863678</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.04070827893863678</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.04070827893863678</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.04070827893863679</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.04070827893863679</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.04070827893863678</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.04070827893863679</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.04070827893863679</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.04070827893863679</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.04070827893863681</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.07256302092313623</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.04070827893863681</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.0407082789386368</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.0407082789386368</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.04070837938099212</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.0407082789386368</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.0407082789386368</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.07256302092313618</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.04070827893863675</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.04070827893863678</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.04070827893863678</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.04070827893863675</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.04070827893863675</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.07256302092313623</v>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>g__Schwartzia</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>g__Schwartzia(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>hRUG860.fasta</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2.220131741801511e-14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.220131741801511e-14</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2.220131741801511e-14</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2.220131741801511e-14</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2.220131741801511e-14</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.220131741801511e-14</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.220131741801511e-14</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.220131741801511e-14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.220131741801511e-14</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.220131741801511e-14</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.220131741801511e-14</v>
-      </c>
-      <c r="M16" t="n">
-        <v>2.220131741801511e-14</v>
-      </c>
-      <c r="N16" t="n">
-        <v>2.220131741801511e-14</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2.220131741801511e-14</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.008086759245291179</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.220131741801511e-14</v>
-      </c>
-      <c r="R16" t="n">
-        <v>2.220131741801511e-14</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.220131741801511e-14</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.9919132407542426</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.220131741801511e-14</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.220131741801511e-14</v>
-      </c>
-      <c r="W16" t="n">
-        <v>2.220131741801511e-14</v>
-      </c>
-      <c r="X16" t="n">
-        <v>2.220131741801511e-14</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0.9919132407542426</v>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>g__UBA2897</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
         <is>
           <t>g__UBA2897</t>
         </is>
